--- a/Configs/GameConfig/Datas/__enums__.xlsx
+++ b/Configs/GameConfig/Datas/__enums__.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12900"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="200">
   <si>
     <t>##var</t>
   </si>
@@ -73,91 +86,564 @@
     <t>注释</t>
   </si>
   <si>
-    <t>item.EQuality</t>
-  </si>
-  <si>
-    <t>WHITE</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>最差品质</t>
-  </si>
-  <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>蓝</t>
-  </si>
-  <si>
-    <t>蓝色的</t>
-  </si>
-  <si>
-    <t>PURPLE</t>
-  </si>
-  <si>
-    <t>紫</t>
-  </si>
-  <si>
-    <t>紫色的</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>红</t>
-  </si>
-  <si>
-    <t>最高品质</t>
-  </si>
-  <si>
-    <t>test.AccessFlag</t>
-  </si>
-  <si>
-    <t>WRITE</t>
-  </si>
-  <si>
-    <t>READ</t>
-  </si>
-  <si>
-    <t>TRUNCATE</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>READ_WRITE</t>
-  </si>
-  <si>
-    <t>WRITE|READ</t>
-  </si>
-  <si>
-    <t>位标记使用示例</t>
+    <t>ChessType</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>NormalProducer</t>
+  </si>
+  <si>
+    <t>普通生产器</t>
+  </si>
+  <si>
+    <t>生产器-普通:生产消耗体力,库存用完后进入冷却以恢复库存</t>
+  </si>
+  <si>
+    <t>AutoProducer</t>
+  </si>
+  <si>
+    <t>自动生产器</t>
+  </si>
+  <si>
+    <t>生产器-自动:生产不消耗体力,有空位则自动生产,库存用完后进入冷却以恢复库存</t>
+  </si>
+  <si>
+    <t>StateProducer</t>
+  </si>
+  <si>
+    <t>状态生产器</t>
+  </si>
+  <si>
+    <t>生产器-状态:切换状态消耗体力,切换特定状态生产棋子</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>宝箱</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>其他:包括货币,剧情道具,以及后续新增的道具</t>
+  </si>
+  <si>
+    <t>AllPowerful</t>
+  </si>
+  <si>
+    <t>万能棋子</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>剧情棋子</t>
+  </si>
+  <si>
+    <t>Bubbly</t>
+  </si>
+  <si>
+    <t>气泡棋子</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>活动棋子</t>
+  </si>
+  <si>
+    <t>SelectBox</t>
+  </si>
+  <si>
+    <t>自选棋子</t>
+  </si>
+  <si>
+    <t>OrderBox</t>
+  </si>
+  <si>
+    <t>订单宝箱棋子</t>
+  </si>
+  <si>
+    <t>Shear</t>
+  </si>
+  <si>
+    <t>剪刀棋子</t>
+  </si>
+  <si>
+    <t>Combination</t>
+  </si>
+  <si>
+    <t>组合棋子</t>
+  </si>
+  <si>
+    <t>需要被组合的棋子</t>
+  </si>
+  <si>
+    <t>ChessTagType</t>
+  </si>
+  <si>
+    <t>Chess</t>
+  </si>
+  <si>
+    <t>棋子</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>生产器</t>
+  </si>
+  <si>
+    <t>剧情</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>ChessDetailType</t>
+  </si>
+  <si>
+    <t>Nomal</t>
+  </si>
+  <si>
+    <t>常规</t>
+  </si>
+  <si>
+    <t>Tip</t>
+  </si>
+  <si>
+    <t>宝箱提示</t>
+  </si>
+  <si>
+    <t>ContainRate</t>
+  </si>
+  <si>
+    <t>数量加概率</t>
+  </si>
+  <si>
+    <t>SpecialProducer</t>
+  </si>
+  <si>
+    <t>特殊生产器</t>
+  </si>
+  <si>
+    <t>ProducerEndType</t>
+  </si>
+  <si>
+    <t>无效果</t>
+  </si>
+  <si>
+    <t>LevelDown</t>
+  </si>
+  <si>
+    <t>降级</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>消失</t>
+  </si>
+  <si>
+    <t>OrderOpenEvent</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>等级触发</t>
+  </si>
+  <si>
+    <t>生产器触发</t>
+  </si>
+  <si>
+    <t>BuilldRewardType</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>WeekActivity</t>
+  </si>
+  <si>
+    <t>周活</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>月活</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>特殊</t>
+  </si>
+  <si>
+    <t>ActivityPointGainType</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>合成获得</t>
+  </si>
+  <si>
+    <t>生产器产生棋子获得</t>
+  </si>
+  <si>
+    <t>CardBag</t>
+  </si>
+  <si>
+    <t>获得卡包</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>订单完成</t>
+  </si>
+  <si>
+    <t>SpendGem</t>
+  </si>
+  <si>
+    <t>花费钻石</t>
+  </si>
+  <si>
+    <t>GainCoin</t>
+  </si>
+  <si>
+    <t>获得金币</t>
+  </si>
+  <si>
+    <t>CoumeEnergy</t>
+  </si>
+  <si>
+    <t>消耗体力</t>
+  </si>
+  <si>
+    <t>Prop</t>
+  </si>
+  <si>
+    <t>道具获得</t>
+  </si>
+  <si>
+    <t>ActivityType</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>MainDecor</t>
+  </si>
+  <si>
+    <t>主要装饰</t>
+  </si>
+  <si>
+    <t>活动进度变化方式</t>
+  </si>
+  <si>
+    <t>ActivityQuestType</t>
+  </si>
+  <si>
+    <t>CreateChess</t>
+  </si>
+  <si>
+    <t>产生棋子</t>
+  </si>
+  <si>
+    <t>CompleteOrder</t>
+  </si>
+  <si>
+    <t>完成订单</t>
+  </si>
+  <si>
+    <t>MergeChess</t>
+  </si>
+  <si>
+    <t>合并棋子</t>
+  </si>
+  <si>
+    <t>小棋盘的棋子类型</t>
+  </si>
+  <si>
+    <t>SmallChessType</t>
+  </si>
+  <si>
+    <t>普通棋子</t>
+  </si>
+  <si>
+    <t>生产器棋子</t>
+  </si>
+  <si>
+    <t>自动生产</t>
+  </si>
+  <si>
+    <t>MainCurrency</t>
+  </si>
+  <si>
+    <t>主棋盘货币</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>大门</t>
+  </si>
+  <si>
+    <t>引导类型</t>
+  </si>
+  <si>
+    <t>GuideType</t>
+  </si>
+  <si>
+    <t>ComponentClick</t>
+  </si>
+  <si>
+    <t>组件点击</t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>对话</t>
+  </si>
+  <si>
+    <t>ChessDrag</t>
+  </si>
+  <si>
+    <t>棋子拖动</t>
+  </si>
+  <si>
+    <t>ChessClick</t>
+  </si>
+  <si>
+    <t>棋子点击</t>
+  </si>
+  <si>
+    <t>OrderAchieve</t>
+  </si>
+  <si>
+    <t>OrderFocus</t>
+  </si>
+  <si>
+    <t>订单高亮</t>
+  </si>
+  <si>
+    <t>OrderDetail</t>
+  </si>
+  <si>
+    <t>订单详情</t>
+  </si>
+  <si>
+    <t>BuildComponentClick</t>
+  </si>
+  <si>
+    <t>建筑页面按钮</t>
+  </si>
+  <si>
+    <t>ChessWareHouse</t>
+  </si>
+  <si>
+    <t>棋子移动仓库</t>
+  </si>
+  <si>
+    <t>OpenView</t>
+  </si>
+  <si>
+    <t>打开界面</t>
+  </si>
+  <si>
+    <t>引导步骤保存时机</t>
+  </si>
+  <si>
+    <t>GuideSaveKeyType</t>
+  </si>
+  <si>
+    <t>NoSave</t>
+  </si>
+  <si>
+    <t>不保存</t>
+  </si>
+  <si>
+    <t>ReachSave</t>
+  </si>
+  <si>
+    <t>触发保存</t>
+  </si>
+  <si>
+    <t>AchieveSave</t>
+  </si>
+  <si>
+    <t>完成保存</t>
+  </si>
+  <si>
+    <t>棋盘棋子引导触发类型</t>
+  </si>
+  <si>
+    <t>ChessGuideType</t>
+  </si>
+  <si>
+    <t>SpawnSpecific</t>
+  </si>
+  <si>
+    <t>生成特定棋子</t>
+  </si>
+  <si>
+    <t>SpawnGroup</t>
+  </si>
+  <si>
+    <t>生成特定组棋子</t>
+  </si>
+  <si>
+    <t>SpawnType</t>
+  </si>
+  <si>
+    <t>生成特定类型棋子</t>
+  </si>
+  <si>
+    <t>订单引导触发类型</t>
+  </si>
+  <si>
+    <t>OrderGuideType</t>
+  </si>
+  <si>
+    <t>生成特定订单ID</t>
+  </si>
+  <si>
+    <t>包含特定组</t>
+  </si>
+  <si>
+    <t>暂时没用</t>
+  </si>
+  <si>
+    <t>包含特定类型棋子</t>
+  </si>
+  <si>
+    <t>CardRare</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>顶部奖励类型</t>
+  </si>
+  <si>
+    <t>TopRewardType</t>
+  </si>
+  <si>
+    <t>常规棋子</t>
+  </si>
+  <si>
+    <t>SpecialTreasure</t>
+  </si>
+  <si>
+    <t>奖励宝箱</t>
+  </si>
+  <si>
+    <t>PassportTreasure</t>
+  </si>
+  <si>
+    <t>通行证宝箱</t>
+  </si>
+  <si>
+    <t>ActivityPoint</t>
+  </si>
+  <si>
+    <t>活动点数</t>
+  </si>
+  <si>
+    <t>ChessboardBuff</t>
+  </si>
+  <si>
+    <t>特殊buff</t>
+  </si>
+  <si>
+    <t>ActivityProp</t>
+  </si>
+  <si>
+    <t>活动道具</t>
+  </si>
+  <si>
+    <t>订单类型</t>
+  </si>
+  <si>
+    <t>OrderType</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>固定订单</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>随机订单</t>
+  </si>
+  <si>
+    <t>Recycle</t>
+  </si>
+  <si>
+    <t>回收订单</t>
+  </si>
+  <si>
+    <t>活动订单</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -165,7 +651,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -173,14 +659,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -188,7 +674,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -196,7 +682,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -204,7 +690,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -212,7 +698,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -220,14 +706,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -235,7 +721,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -243,7 +729,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -251,14 +737,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -266,42 +752,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -315,7 +801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,152 +1118,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,57 +1276,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1109,23 +1601,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.8761904761905" customWidth="1"/>
-    <col min="4" max="5" width="14.1238095238095" customWidth="1"/>
-    <col min="6" max="6" width="9.37142857142857" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5047619047619" customWidth="1"/>
-    <col min="9" max="9" width="5.24761904761905" customWidth="1"/>
-    <col min="10" max="10" width="12.1238095238095" customWidth="1"/>
-    <col min="11" max="11" width="15.1238095238095" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="34.375" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1214,7 +1707,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -1227,108 +1720,1198 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="8:11">
       <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>24</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="8:11">
       <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="8:11">
       <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J7">
+    </row>
+    <row r="8" spans="8:10">
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8">
         <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="8:10">
       <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="8:10">
       <c r="H10" t="s">
         <v>35</v>
       </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
       <c r="J10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="8:10">
       <c r="H11" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
       </c>
       <c r="J11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="8:10">
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="8:11">
-      <c r="H12" t="s">
+    <row r="13" spans="8:10">
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="8:10">
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="8:10">
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="8:10">
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11">
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10">
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10">
+      <c r="H21" t="s">
         <v>37</v>
       </c>
-      <c r="J12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" t="s">
-        <v>39</v>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10">
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10">
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10">
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10">
+      <c r="H27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="8:10">
+      <c r="H28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10">
+      <c r="H29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="8:10">
+      <c r="H32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10">
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10">
+      <c r="H36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10">
+      <c r="H38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="8:10">
+      <c r="H39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10">
+      <c r="H40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" t="s">
+        <v>88</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10">
+      <c r="H41" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" t="s">
+        <v>90</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:10">
+      <c r="H44" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" t="s">
+        <v>93</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="8:10">
+      <c r="H45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" t="s">
+        <v>94</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="8:10">
+      <c r="H46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I46" t="s">
+        <v>96</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="8:10">
+      <c r="H47" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" t="s">
+        <v>98</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="8:10">
+      <c r="H48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48" t="s">
+        <v>100</v>
+      </c>
+      <c r="J48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10">
+      <c r="H49" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" t="s">
+        <v>102</v>
+      </c>
+      <c r="J49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10">
+      <c r="H50" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" t="s">
+        <v>104</v>
+      </c>
+      <c r="J50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10">
+      <c r="H51" t="s">
+        <v>105</v>
+      </c>
+      <c r="I51" t="s">
+        <v>106</v>
+      </c>
+      <c r="J51">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s">
+        <v>63</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="8:10">
+      <c r="H54" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" t="s">
+        <v>108</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="13" customHeight="1" spans="8:10">
+      <c r="H55" t="s">
+        <v>109</v>
+      </c>
+      <c r="I55" t="s">
+        <v>110</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="8:10">
+      <c r="H58" t="s">
+        <v>115</v>
+      </c>
+      <c r="I58" t="s">
+        <v>116</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="8:10">
+      <c r="H59" t="s">
+        <v>99</v>
+      </c>
+      <c r="I59" t="s">
+        <v>100</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="8:10">
+      <c r="H60" t="s">
+        <v>117</v>
+      </c>
+      <c r="I60" t="s">
+        <v>118</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s">
+        <v>121</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10">
+      <c r="H62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I62" t="s">
+        <v>122</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="8:10">
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="8:10">
+      <c r="H64" t="s">
+        <v>124</v>
+      </c>
+      <c r="I64" t="s">
+        <v>125</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="8:10">
+      <c r="H65" t="s">
+        <v>126</v>
+      </c>
+      <c r="I65" t="s">
+        <v>127</v>
+      </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>130</v>
+      </c>
+      <c r="I67" t="s">
+        <v>131</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="8:10">
+      <c r="H68" t="s">
+        <v>132</v>
+      </c>
+      <c r="I68" t="s">
+        <v>133</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="8:10">
+      <c r="H69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I69" t="s">
+        <v>135</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="8:10">
+      <c r="H70" t="s">
+        <v>136</v>
+      </c>
+      <c r="I70" t="s">
+        <v>137</v>
+      </c>
+      <c r="J70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="8:10">
+      <c r="H71" t="s">
+        <v>138</v>
+      </c>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="8:10">
+      <c r="H72" t="s">
+        <v>139</v>
+      </c>
+      <c r="I72" t="s">
+        <v>140</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J73" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J74" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J75" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J76" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J79" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>159</v>
+      </c>
+      <c r="I80" t="s">
+        <v>160</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="8:10">
+      <c r="H81" t="s">
+        <v>161</v>
+      </c>
+      <c r="I81" t="s">
+        <v>162</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="8:10">
+      <c r="H82" t="s">
+        <v>163</v>
+      </c>
+      <c r="I82" t="s">
+        <v>164</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>159</v>
+      </c>
+      <c r="I84" t="s">
+        <v>167</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="8:11">
+      <c r="H85" t="s">
+        <v>161</v>
+      </c>
+      <c r="I85" t="s">
+        <v>168</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="8:11">
+      <c r="H86" t="s">
+        <v>163</v>
+      </c>
+      <c r="I86" t="s">
+        <v>170</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>172</v>
+      </c>
+      <c r="I94" t="s">
+        <v>173</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="8:10">
+      <c r="H95" t="s">
+        <v>174</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="8:10">
+      <c r="H96" t="s">
+        <v>175</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="8:10">
+      <c r="H97" t="s">
+        <v>176</v>
+      </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="8:10">
+      <c r="H98" t="s">
+        <v>177</v>
+      </c>
+      <c r="J98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" t="s">
+        <v>179</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>81</v>
+      </c>
+      <c r="I99" t="s">
+        <v>180</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="8:10">
+      <c r="H100" t="s">
+        <v>181</v>
+      </c>
+      <c r="I100" t="s">
+        <v>182</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="8:10">
+      <c r="H101" t="s">
+        <v>183</v>
+      </c>
+      <c r="I101" t="s">
+        <v>184</v>
+      </c>
+      <c r="J101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="8:10">
+      <c r="H102" t="s">
+        <v>185</v>
+      </c>
+      <c r="I102" t="s">
+        <v>186</v>
+      </c>
+      <c r="J102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="8:10">
+      <c r="H103" t="s">
+        <v>187</v>
+      </c>
+      <c r="I103" t="s">
+        <v>188</v>
+      </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="8:10">
+      <c r="H104" t="s">
+        <v>189</v>
+      </c>
+      <c r="I104" t="s">
+        <v>190</v>
+      </c>
+      <c r="J104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>191</v>
+      </c>
+      <c r="B105" t="s">
+        <v>192</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>193</v>
+      </c>
+      <c r="I105" t="s">
+        <v>194</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="8:10">
+      <c r="H106" t="s">
+        <v>195</v>
+      </c>
+      <c r="I106" t="s">
+        <v>196</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="8:10">
+      <c r="H107" t="s">
+        <v>197</v>
+      </c>
+      <c r="I107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="8:10">
+      <c r="H108" t="s">
+        <v>41</v>
+      </c>
+      <c r="I108" t="s">
+        <v>199</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
